--- a/m2/unityProject/Assets/locamotion-test/sm/test01Control.xlsx
+++ b/m2/unityProject/Assets/locamotion-test/sm/test01Control.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E030D5-9FFC-4BEC-BC32-2C363CE60F15}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E53561F-06E9-4209-8B34-DD7FFF77213B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
   <si>
     <t>thumbnail</t>
   </si>
@@ -362,9 +362,6 @@
     <t>wait</t>
   </si>
   <si>
-    <t>check_button_or_timeout();</t>
-  </si>
-  <si>
     <t>wait-cmt</t>
   </si>
   <si>
@@ -430,15 +427,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>br_RUN(S_RUN);
-br_JUMP(S_JUMP_IN_WALK);
-br_STOP(S_IDLE);</t>
-  </si>
-  <si>
-    <t>br_JUMP(S_JUMP_IN_RUN);
-br_STOP(S_IDLE);</t>
   </si>
   <si>
     <t>100008</t>
@@ -528,9 +516,41 @@
     <t>key_f</t>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/07/31 16:47:11
+    <t>idle_kick();</t>
+  </si>
+  <si>
+    <t>walk_kick();</t>
+  </si>
+  <si>
+    <t>run_kick();</t>
+  </si>
+  <si>
+    <t>check_button_or_timeout_inidle()</t>
+  </si>
+  <si>
+    <t>check_jumpbutton_or_timeout_to_run_inwalk()</t>
+  </si>
+  <si>
+    <t>check_button_inrun()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フォワードボタンの押しっぱなし中はWALK継続、但し、タイムアウトになると RUNへ移行。JUMPボタンでJumpへ。キーなしでアイドルへ。
+</t>
+  </si>
+  <si>
+    <t>br_RUN(S_RUN);
+br_JUMP(S_JUMP_IN_WALK);
+br_IDLE(S_SET_NEXTIDLE);</t>
+  </si>
+  <si>
+    <t>br_JUMP(S_JUMP_IN_RUN);
+br_IDLE(S_SET_NEXTIDLE);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/08/01 11:28:07
 ; * pssgEditor version : 0.8.0.603b3dfa937cdeb67e6ff6bcc451ac6d095487a1
 psggfile=@@@
+test01Control.psgg
 @@@
 xlsfile=@@@
 test01Control.xlsx
@@ -545,7 +565,7 @@
 c_contents=1
 force_display_outpin=0
 last_action=@@@
-Moved a state
+Changed an arrow direction
 @@@
 target_pathdir=@@@
 /
@@ -553,10 +573,10 @@
 state_location_list=@@@
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":14,"y":60}},{"Key":"S_END","Value":{"x":1200.39221,"y":73.8823547}},{"Key":"S_IDLE","Value":{"x":336,"y":44}},{"Key":"S_WALK","Value":{"x":588,"y":65}},{"Key":"S_SET_NEXTIDLE","Value":{"x":294.352936,"y":557.058838}},{"Key":"S_RUN","Value":{"x":875.6667,"y":69.6666641}},{"Key":"S_INIT","Value":{"x":114,"y":275}},{"Key":"S_JUMP_IN_WALK","Value":{"x":587.1176,"y":553.2941}},{"Key":"S_JUMP_IN_RUN","Value":{"x":899.999939,"y":557.3334}}]}]
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":14,"y":60}},{"Key":"S_END","Value":{"x":1200.39221,"y":73.8823547}},{"Key":"S_IDLE","Value":{"x":336,"y":44}},{"Key":"S_WALK","Value":{"x":588,"y":65}},{"Key":"S_SET_NEXTIDLE","Value":{"x":294.352936,"y":557.058838}},{"Key":"S_RUN","Value":{"x":875.6667,"y":69.6666641}},{"Key":"S_INIT","Value":{"x":114,"y":275}},{"Key":"S_JUMP_IN_WALK","Value":{"x":587.1176,"y":553.2941}},{"Key":"S_JUMP_IN_RUN","Value":{"x":890.999939,"y":542.3334}}]}]
 @@@
 linecolor_data=@@@
-[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"\\(S_IDLE"}]
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4278222976},"pattern":"IDLE"}]
 @@@
 use_external_command=0
 external_command=@@@
@@ -1504,10 +1524,10 @@
         <v>14</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="7" customFormat="1">
@@ -1536,10 +1556,10 @@
         <v>21</v>
       </c>
       <c r="K3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="7" customFormat="1">
@@ -1564,13 +1584,13 @@
       </c>
       <c r="E5" s="8"/>
       <c r="G5" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>10</v>
@@ -1597,17 +1617,26 @@
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
+      <c r="F7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="H7" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>26</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="11" customFormat="1">
@@ -1663,34 +1692,34 @@
     <row r="14" spans="1:12" s="11" customFormat="1">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="11" customFormat="1">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="G15" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="11" customFormat="1">
@@ -1703,16 +1732,16 @@
     <row r="17" spans="1:12" s="11" customFormat="1">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="11" customFormat="1">
@@ -1722,7 +1751,7 @@
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:12" s="11" customFormat="1" ht="37.5">
+    <row r="19" spans="1:12" s="11" customFormat="1" ht="56.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>31</v>
@@ -1731,25 +1760,34 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11" t="s">
-        <v>32</v>
+        <v>68</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="11" customFormat="1" ht="56.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="11" customFormat="1" ht="187.5">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="11" customFormat="1">
@@ -1767,11 +1805,20 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
+      <c r="F22" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="23" spans="1:12" s="11" customFormat="1">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -1787,25 +1834,25 @@
     <row r="25" spans="1:12" s="13" customFormat="1" ht="93.75">
       <c r="A25" s="12"/>
       <c r="B25" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="15" customFormat="1" ht="18.75" customHeight="1">
       <c r="A26" s="14"/>
       <c r="B26" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -1814,60 +1861,60 @@
     <row r="27" spans="1:12" s="16" customFormat="1"/>
     <row r="28" spans="1:12" s="16" customFormat="1" ht="56.25">
       <c r="B28" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="16" t="s">
-        <v>40</v>
-      </c>
       <c r="G28" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L28" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="16" customFormat="1">
       <c r="B29" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="E29" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="F29" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="G29" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="H29" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H29" s="16" t="s">
+      <c r="I29" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I29" s="16" t="s">
+      <c r="J29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="16" t="s">
-        <v>48</v>
-      </c>
       <c r="K29" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1888,7 +1935,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="18" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1947,7 +1994,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/m2/unityProject/Assets/locamotion-test/sm/test01Control.xlsx
+++ b/m2/unityProject/Assets/locamotion-test/sm/test01Control.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="true"/>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E53561F-06E9-4209-8B34-DD7FFF77213B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
-    <sheet name="config" sheetId="6" r:id="rId2"/>
-    <sheet name="setting.ini" sheetId="5" r:id="rId3"/>
-    <sheet name="help" sheetId="4" r:id="rId4"/>
-    <sheet name="template-statefunc" sheetId="3" r:id="rId5"/>
-    <sheet name="template-source" sheetId="2" r:id="rId6"/>
+    <sheet name="itemsinfo" sheetId="13" r:id="rId16"/>
+    <sheet name="help" sheetId="12" r:id="rId15"/>
+    <sheet name="setting.ini" sheetId="11" r:id="rId14"/>
+    <sheet name="template-statefunc" sheetId="10" r:id="rId13"/>
+    <sheet name="template-source" sheetId="9" r:id="rId12"/>
+    <sheet name="config" sheetId="8" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames/>
+  <calcPr calcId="125725" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="91">
   <si>
     <t>thumbnail</t>
   </si>
@@ -598,6 +600,390 @@
 comment_block_height=45
 line_space=-1
 </t>
+  </si>
+  <si>
+    <t>[inpmethod]
+nextstate=
+wait-cmt=
+!pos=
+update=
+state=
+S_=
+init-ref=
+E_=
+init-cmt=
+post_wait-cmt=
+branch=
+state-ref=
+key_f=
+update-cmt=
+post_wait=
+C_=
+key_j=
+timeout=
+!uuid=
+init=
+!dir=
+wait=
+nowait=
+thumbnail=
+state-cmt=
+[stateloc]
+E_=S1
+S_=S0
+C_=S2
+[itemcond]
+thumbnail=read_only,share,S.+
+gosubstate=read_only,exclusion,S0
+branch=read_only,exclusion,S0
+state=read_only,share,S.+
+nextstate=read_only,exclusion,S0
+return=read_only,exclusion,S0
+basestate=read_only,share,S.+
+brcond=read_only,exclusion,S0
+embed=read_only,exclusion,S1
+</t>
+  </si>
+  <si>
+    <t>!pos</t>
+  </si>
+  <si>
+    <t>14,60</t>
+  </si>
+  <si>
+    <t>1200,74</t>
+  </si>
+  <si>
+    <t>336,44</t>
+  </si>
+  <si>
+    <t>588,65</t>
+  </si>
+  <si>
+    <t>294,557</t>
+  </si>
+  <si>
+    <t>876,70</t>
+  </si>
+  <si>
+    <t>114,275</t>
+  </si>
+  <si>
+    <t>587,553</t>
+  </si>
+  <si>
+    <t>891,542</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/02/16 20:40:28
+; * pssgEditor version : 0.22.30038.f0fd1f302b8cc8a89c2f76c9aaf21cd4db14954f
+psggfile=@@@
+test01Control.psgg
+@@@
+xlsfile=@@@
+test01Control.xlsx
+@@@
+guid=@@@
+12c0d41c-1318-43df-a2c5-fe45bcf27ba9
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Initilized
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+nodegroup_comment_list=@@@
+[{"Key":"\/","Value":""}]
+@@@
+nodegroup_pos_list=@@@
+[{"Key":"\/","Value":{"x":100,"y":100}}]
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":14,"y":60}},{"Key":"S_END","Value":{"x":1200,"y":74}},{"Key":"S_IDLE","Value":{"x":336,"y":44}},{"Key":"S_WALK","Value":{"x":588,"y":65}},{"Key":"S_SET_NEXTIDLE","Value":{"x":294,"y":557}},{"Key":"S_RUN","Value":{"x":876,"y":70}},{"Key":"S_INIT","Value":{"x":114,"y":275}},{"Key":"S_JUMP_IN_WALK","Value":{"x":587,"y":553}},{"Key":"S_JUMP_IN_RUN","Value":{"x":891,"y":542}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4278222976},"pattern":"IDLE"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+source_editor_vs2015_support=1
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=0
+option_delete_br_string=0
+option_delete_bracket_string=0
+option_delete_s_state_string=0
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+option_hide_basestate_contents=0
+option_hide_branchcmt_onbranchbox=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+comment_font_size=0
+contents_font_size=0
+state_width=140
+state_height=20
+comment_block_height=45
+content_max_height=200
+comment_block_fixed=0
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>:output=test01Control_created.cs
+::tempfunc=template-func.txt
+:enc=utf-8
+::
+public partial class test01Control : StateManager {
+    public void Start()
+    {
+        Goto(S_START);
+    }
+    public bool IsEnd()     
+    { 
+        return CheckState(S_END); 
+    }
+    $contents2$
+}
+</t>
+  </si>
+  <si>
+    <t>/*
+    [[state]]
+    [[state-cmt]]
+*/
+void [[state]](bool bFirst)
+{
+    if (bFirst)
+    {
+        [[init]]
+        &lt;&lt;&lt;?timeout
+        set_timeout([[timeout]]);        
+        &gt;&gt;&gt;
+        accept_key_reset();
+        &lt;&lt;&lt;?key_f
+        accept_forward_key();
+        &gt;&gt;&gt;
+        &lt;&lt;&lt;?key_j
+        accept_jump_key();
+        &gt;&gt;&gt;
+    }
+    [[update]]
+    &lt;&lt;&lt;?wait
+    if (![[wait]]) return;
+    &gt;&gt;&gt;
+    [[post_wait]]
+    [[branch]]
+    &lt;&lt;&lt;?nextstate        
+    if (!HasNextState())
+    {
+        SetNextState([[nextstate]]);
+    }
+    &gt;&gt;&gt;
+    if (HasNextState())
+    {
+        &lt;&lt;&lt;?nowait
+            NoWait();
+        &gt;&gt;&gt;
+        GoNextState();
+    }
+}
+</t>
+  </si>
+  <si>
+    <t>[setting]
+psgg=test01Control.psgg
+xls=test01Control.xlsx
+sub_src=test01Control.cs
+gen_src=test01Control_created.cs
+manager_src=StateManager.cs
+manager_dir=base
+template_src=template-source.txt
+template_func=template-statefunc.txt
+help=help.ini
+[setupinfo]
+; converter=user.dll
+lang=c#
+framework=
+prefix=test01
+xlsdir=C:\Project\unity-simpleanimation-samples\m2\unityProject\Assets\locamotion-test\sm
+gendir=C:\Project\unity-simpleanimation-samples\m2\unityProject\Assets\locamotion-test\sm
+genrdir=.
+incrdir=.
+[jpn]
+title=C# サンプル 1
+detail=@@@
+C# 用のステートマシンを作成します。
+# ドキュメント用フォルダ
+   ステート図ファイルとEditor起動用ショートカットを格納
+      C:\Project\unity-simpleanimation-samples\m2\unityProject\Assets\locamotion-test\sm
+  以下のファイルを作成します。
+      test01Control.pssg   --- PSSG Editorで次のエクセルファイルを開く。
+      test01Control.xlsx   --- ステート図格納用Excelファイル。PSSG Editorが編集。
+# ソース用フォルダ　
+　PSSG Editorが生成ソースファイル、ユーザ実装ソースファイル、及び管理クラスファイルを格納
+      C:\Project\unity-simpleanimation-samples\m2\unityProject\Assets\locamotion-test\sm
+  以下のファイルが作成されます。
+      test01Control_created.cs  --- Excelファイルからの変換ソースコード。変換プロセスの度に上書きされる。
+                                        ※生成直後は関数なしのクラス定義のみ
+     test01Control.cs          --- ユーザ実装用　（ここにプログラムを書く！）
+                                        ※生成直後は関数なしのクラス定義のみ
+# 共通管理クラスファイル
+　以下に作成されます。
+      C:\Project\unity-simpleanimation-samples\m2\unityProject\Assets\locamotion-test\sm/base/StateManager.cs
+注意 : 既に同名のファイルがある場合は生成されません。
+　　　 削除してから生成してください。
+記 2018.7.7
+@@@
+[en]
+title=C# Sample 1
+detail=@@@
+This dialog will create files for a state machine.
+# Document Folder 
+　This folder will contain a state chart file and the shortcut of the editor.
+      C:\Project\unity-simpleanimation-samples\m2\unityProject\Assets\locamotion-test\sm
+  File:
+      test01Control.pssg  --- PSSG Editor opens the below excel file.
+      test01Control.xlsx  --- Excel File that has a state chart. PSSG Editor edits this file.
+# Source Folder 
+   This folder will contain a source file generated by PSSG Editor, a user implemetation source file, and a manager source file.
+      C:\Project\unity-simpleanimation-samples\m2\unityProject\Assets\locamotion-test\sm
+　File:
+      test01Control_created.cs   -- PSSG Editor will convert from the excel file to this file. This file will overwriten whenever using the converting process of PSSG Editor.
+                                        * The file has only a class define without methods immediately after this creation.
+      test01Control.cs　　　　　 -- For implementation. (You have to write program in this file!!)
+                                        * The file has only class define without methods immediately after this creation. 
+# Common State Manager Class File
+  File:
+      C:\Project\unity-simpleanimation-samples\m2\unityProject\Assets\locamotion-test\sm/base/StateManager.cs 
+NOTE : If the same name files exists, the file will not be created.
+       Please delete the same name files ahead of the creation.
+Wrote 2018.7.7
+@@@
+</t>
+  </si>
+  <si>
+    <t>; -----
+; 項目説明
+; -----
+[state]
+jpn=@@@
+ステート名を指定する。
+英文字、数字、アンダーバーで構成される。
+先頭は英文字およびアンダーバー。
+@@@
+en=@@@
+Specify a state name.
+The state name consits of alphabet, number and underbar except that the head characther should be alphabet or a underbar.
+@@@
+[thumbnail]
+jpn=@@@
+説明用のイメージを指定する。
+@@@
+en=@@@
+Specify a image for explanation of this state.
+@@@
+[init]
+jpn=@@@
+初期化用処理を指定する。
+@@@
+en=@@@
+Specify a initial process.
+@@@
+[update]
+jpn=@@@
+更新処理を指定する。
+@@@
+en=@@@
+Specify a update process.
+@@@
+[wait]
+jpn=@@@
+待ち条件を指定する。
+true時にループを解除する。
+@@@
+en=@@@
+Specify a waiting condition.
+Release the loop if the condition is true.
+@@@
+[post_wait]
+jpn=@@@
+'wait'後の処理を指定する。
+@@@
+en=@@@
+Specify the post process after 'wait'.
+@@@
+[branch]
+jpn=@@@
+分岐処理を指定する。
+１行に一つの分岐命令を書く。
+GUIにより上書きされるため引数は適当に指定する。
+例）
+br_YES(?);
+br_NO(?);
+br_UNKNOWN(?);
+@@@
+en=@@@
+Specify branch functions.
+Each line has a branch function.
+Specify a tentavie parameter for each branch function because GUI overwrites the parameter.
+i.e)
+br_YES(?);
+br_NO(?);
+br_UNKNOWN(?);
+@@@
+[nextstate]
+jpn=@@@
+次に実行するステートを指定する。
+@@@
+en=@@@
+Specify the next state to be executed.
+@@@
+[nowait]
+jpn=@@@
+次のステートへ同期待ちをせず実行する時に 'yes'を指定する。
+同期待ち時には何も指定しない。
+@@@
+en=@@@
+Specify 'yes' if the next state will be execute without a sync wait.
+Do not specify any word wheh the next state will be execute with a sync wait.
+@@@
+[!dir]
+jpn=@@@
+システムがステートのディレクトリ指定に使用。
+@@@
+en=@@@
+System uses this for the directory path of the state.
+@@@
+[!uuid]
+jpn=@@@
+システムがステートのuuid指定に使用。
+@@@
+en=@@@
+System uses this for the uuid of the state.
+@@@</t>
   </si>
 </sst>
 </file>
@@ -678,13 +1064,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.79998168889431"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -700,43 +1086,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59996337778862885"/>
+        <fgColor theme="7" tint="0.59996337778863"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
+        <fgColor theme="4" tint="0.39994506668294"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79998168889431"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor theme="0" tint="-0.14996795556505"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.79998168889431"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39994506668294322"/>
+        <fgColor theme="7" tint="0.39994506668294"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.79998168889431"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,80 +1168,80 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="6" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" shrinkToFit="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment shrinkToFit="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="4" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="1" xfId="3" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="5" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -881,7 +1267,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -899,7 +1285,7 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3B92720-CDFC-40A4-8DED-DF26256CAA4F}"/>
             </a:ext>
           </a:extLst>
@@ -909,9 +1295,9 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip r:embed="rId1">
           <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+            <a:ext xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
@@ -949,7 +1335,7 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92098CB3-A86B-4692-82FD-8741BFDA1411}"/>
             </a:ext>
           </a:extLst>
@@ -959,9 +1345,9 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip r:embed="rId2">
           <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+            <a:ext xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
@@ -999,7 +1385,7 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="図 8">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4B411C6-F4D8-4587-8B19-B0173493FE1F}"/>
             </a:ext>
           </a:extLst>
@@ -1009,9 +1395,9 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip r:embed="rId3">
           <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+            <a:ext xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
@@ -1049,7 +1435,7 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="13" name="図 12">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{139FFA93-9DC8-4C05-9F18-125C5DF3BAF3}"/>
             </a:ext>
           </a:extLst>
@@ -1059,9 +1445,9 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip r:embed="rId4">
           <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+            <a:ext xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
@@ -1099,7 +1485,7 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="15" name="図 14">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDC7BAA6-F319-4F48-9D35-591C8662A789}"/>
             </a:ext>
           </a:extLst>
@@ -1109,9 +1495,9 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip r:embed="rId5">
           <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+            <a:ext xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
@@ -1149,7 +1535,7 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="17" name="図 16">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{919D1ABC-CE26-42D6-9830-4DF696D26184}"/>
             </a:ext>
           </a:extLst>
@@ -1159,9 +1545,9 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip r:embed="rId5">
           <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+            <a:ext xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
@@ -1448,9 +1834,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="false" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1460,11 +1846,11 @@
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="2" width="15.625" style="17"/>
-    <col min="3" max="3" width="26.875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="26.875" style="17" customWidth="true"/>
     <col min="4" max="16384" width="15.625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="144.75" customHeight="1">
+    <row r="1" s="2" customFormat="true" ht="144.75" customHeight="true">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1494,7 +1880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1">
+    <row r="2" s="4" customFormat="true">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1530,7 +1916,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1">
+    <row r="3" s="7" customFormat="true">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>15</v>
@@ -1562,7 +1948,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1">
+    <row r="4" s="7" customFormat="true">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>22</v>
@@ -1573,7 +1959,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:12" s="9" customFormat="1" ht="18.75" customHeight="1">
+    <row r="5" s="9" customFormat="true" ht="18.75" customHeight="true">
       <c r="A5" s="8"/>
       <c r="B5" s="8" t="s">
         <v>24</v>
@@ -1602,14 +1988,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="11" customFormat="1">
+    <row r="6" s="11" customFormat="true">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="7" s="11" customFormat="true" ht="18.75" customHeight="true">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>25</v>
@@ -1639,7 +2025,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="11" customFormat="1">
+    <row r="8" s="11" customFormat="true">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>27</v>
@@ -1648,7 +2034,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:12" s="11" customFormat="1">
+    <row r="9" s="11" customFormat="true">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>28</v>
@@ -1657,14 +2043,14 @@
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:12" s="11" customFormat="1">
+    <row r="10" s="11" customFormat="true">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="11" s="11" customFormat="true" ht="18.75" customHeight="true">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
         <v>29</v>
@@ -1673,7 +2059,7 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:12" s="11" customFormat="1">
+    <row r="12" s="11" customFormat="true">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>30</v>
@@ -1682,14 +2068,14 @@
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:12" s="11" customFormat="1">
+    <row r="13" s="11" customFormat="true">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:12" s="11" customFormat="1">
+    <row r="14" s="11" customFormat="true">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>64</v>
@@ -1707,7 +2093,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="11" customFormat="1">
+    <row r="15" s="11" customFormat="true">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>59</v>
@@ -1722,14 +2108,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="11" customFormat="1">
+    <row r="16" s="11" customFormat="true">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:12" s="11" customFormat="1">
+    <row r="17" s="11" customFormat="true">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>60</v>
@@ -1744,14 +2130,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="11" customFormat="1">
+    <row r="18" s="11" customFormat="true">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:12" s="11" customFormat="1" ht="56.25">
+    <row r="19" s="11" customFormat="true" ht="56.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>31</v>
@@ -1775,7 +2161,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="11" customFormat="1" ht="187.5">
+    <row r="20" s="11" customFormat="true" ht="187.5">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>32</v>
@@ -1790,14 +2176,14 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="11" customFormat="1">
+    <row r="21" s="11" customFormat="true">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="1:12" s="11" customFormat="1">
+    <row r="22" s="11" customFormat="true">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>1</v>
@@ -1815,7 +2201,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="11" customFormat="1">
+    <row r="23" s="11" customFormat="true">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>34</v>
@@ -1824,14 +2210,14 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="1:12" s="11" customFormat="1">
+    <row r="24" s="11" customFormat="true">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="1:12" s="13" customFormat="1" ht="93.75">
+    <row r="25" s="13" customFormat="true" ht="93.75">
       <c r="A25" s="12"/>
       <c r="B25" s="12" t="s">
         <v>35</v>
@@ -1849,7 +2235,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="15" customFormat="1" ht="18.75" customHeight="1">
+    <row r="26" s="15" customFormat="true" ht="18.75" customHeight="true">
       <c r="A26" s="14"/>
       <c r="B26" s="14" t="s">
         <v>37</v>
@@ -1858,62 +2244,112 @@
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:12" s="16" customFormat="1"/>
-    <row r="28" spans="1:12" s="16" customFormat="1" ht="56.25">
-      <c r="B28" s="16" t="s">
+    <row r="27" s="16" customFormat="true"/>
+    <row r="28" s="16" customFormat="true" ht="56.25" customHeight="true">
+      <c r="B28" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="L28" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" s="16" customFormat="true" ht="56.25" customHeight="true">
+      <c r="A29" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="C29" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G29" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H29" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I28" s="16" t="s">
+      <c r="I29" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J28" s="16" t="s">
+      <c r="J29" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="K28" s="16" t="s">
+      <c r="K29" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="L28" s="16" t="s">
+      <c r="L29" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="16" customFormat="1">
-      <c r="B29" s="16" t="s">
+    <row r="30" s="16" customFormat="true" ht="18.75" customHeight="true">
+      <c r="A30" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="C30" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E30" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F30" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G30" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H29" s="16" t="s">
+      <c r="H30" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="I29" s="16" t="s">
+      <c r="I30" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="J29" s="16" t="s">
+      <c r="J30" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="K29" s="16" t="s">
+      <c r="K30" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="L29" s="16" t="s">
+      <c r="L30" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1925,99 +2361,86 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFA0317-D9E6-4219-B92E-A88BA03D7363}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="18" t="s">
-        <v>74</v>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5E503F-D83A-4BFB-9E8C-B5A35D3CB08A}">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="18" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60575056-F0E5-41C2-A0CC-0E366EF2E0A3}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="18" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D2CB1C-E3C0-423E-8A8B-A5150E55792D}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="18" t="s">
-        <v>63</v>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6105ADEA-628D-48B3-B5E4-ABC6A896A08F}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="18" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>